--- a/Code/Results/Cases/Case_5_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_170/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009279459971595</v>
+        <v>1.053582725339495</v>
       </c>
       <c r="D2">
-        <v>1.024852380208567</v>
+        <v>1.050684185109143</v>
       </c>
       <c r="E2">
-        <v>1.022091442394528</v>
+        <v>1.059460595610241</v>
       </c>
       <c r="F2">
-        <v>1.029320442167392</v>
+        <v>1.068449830793771</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050277149299053</v>
+        <v>1.04264024812578</v>
       </c>
       <c r="J2">
-        <v>1.031186122600318</v>
+        <v>1.058599310103698</v>
       </c>
       <c r="K2">
-        <v>1.035976008045173</v>
+        <v>1.053437778997843</v>
       </c>
       <c r="L2">
-        <v>1.033251354021417</v>
+        <v>1.062190038389461</v>
       </c>
       <c r="M2">
-        <v>1.040385867644316</v>
+        <v>1.071154981823423</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017110722540171</v>
+        <v>1.055120979901498</v>
       </c>
       <c r="D3">
-        <v>1.030661929967253</v>
+        <v>1.051819178856494</v>
       </c>
       <c r="E3">
-        <v>1.028864203801683</v>
+        <v>1.060834737988352</v>
       </c>
       <c r="F3">
-        <v>1.036502320525468</v>
+        <v>1.069915583190493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052933553888624</v>
+        <v>1.043044498534006</v>
       </c>
       <c r="J3">
-        <v>1.037145556724032</v>
+        <v>1.059785649844038</v>
       </c>
       <c r="K3">
-        <v>1.040916959638962</v>
+        <v>1.054384437793381</v>
       </c>
       <c r="L3">
-        <v>1.039140616310997</v>
+        <v>1.063376998598946</v>
       </c>
       <c r="M3">
-        <v>1.046688515832351</v>
+        <v>1.072435100852805</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022021550327458</v>
+        <v>1.056114749340794</v>
       </c>
       <c r="D4">
-        <v>1.034306353644622</v>
+        <v>1.052551975567683</v>
       </c>
       <c r="E4">
-        <v>1.033117000484809</v>
+        <v>1.061722642927602</v>
       </c>
       <c r="F4">
-        <v>1.041013018629164</v>
+        <v>1.070862850454585</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054583983730987</v>
+        <v>1.043303724065597</v>
       </c>
       <c r="J4">
-        <v>1.040878238184765</v>
+        <v>1.060551317887195</v>
       </c>
       <c r="K4">
-        <v>1.044007638239916</v>
+        <v>1.05499479027616</v>
       </c>
       <c r="L4">
-        <v>1.042831510139064</v>
+        <v>1.064143252061468</v>
       </c>
       <c r="M4">
-        <v>1.050640422814378</v>
+        <v>1.0732617340235</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024050763688674</v>
+        <v>1.056532158959304</v>
       </c>
       <c r="D5">
-        <v>1.035812478827046</v>
+        <v>1.052859660512452</v>
       </c>
       <c r="E5">
-        <v>1.034875586982569</v>
+        <v>1.062095623712309</v>
       </c>
       <c r="F5">
-        <v>1.042878497277984</v>
+        <v>1.071260807779602</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055262205893226</v>
+        <v>1.04341214191551</v>
       </c>
       <c r="J5">
-        <v>1.042419509226797</v>
+        <v>1.060872738455015</v>
       </c>
       <c r="K5">
-        <v>1.045282809092165</v>
+        <v>1.05525086078771</v>
       </c>
       <c r="L5">
-        <v>1.044356036635568</v>
+        <v>1.06446496266182</v>
       </c>
       <c r="M5">
-        <v>1.052273224187759</v>
+        <v>1.073608852436558</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024389467278995</v>
+        <v>1.056602222349225</v>
       </c>
       <c r="D6">
-        <v>1.036063880447581</v>
+        <v>1.052911299868099</v>
       </c>
       <c r="E6">
-        <v>1.03516919183084</v>
+        <v>1.062158231748393</v>
       </c>
       <c r="F6">
-        <v>1.043189962955175</v>
+        <v>1.071327610706961</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055375187561641</v>
+        <v>1.043430312947022</v>
       </c>
       <c r="J6">
-        <v>1.042676700781322</v>
+        <v>1.060926679216041</v>
       </c>
       <c r="K6">
-        <v>1.045495536338278</v>
+        <v>1.055293825700705</v>
       </c>
       <c r="L6">
-        <v>1.044610463789186</v>
+        <v>1.064518954692998</v>
       </c>
       <c r="M6">
-        <v>1.052545748461232</v>
+        <v>1.073667111978364</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022048800742838</v>
+        <v>1.056120328236416</v>
       </c>
       <c r="D7">
-        <v>1.034326578825316</v>
+        <v>1.05255608836684</v>
       </c>
       <c r="E7">
-        <v>1.033140611693527</v>
+        <v>1.061727627864074</v>
       </c>
       <c r="F7">
-        <v>1.041038064015255</v>
+        <v>1.070868169047317</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054593106573929</v>
+        <v>1.043305174949912</v>
       </c>
       <c r="J7">
-        <v>1.040898940514194</v>
+        <v>1.060555614549202</v>
       </c>
       <c r="K7">
-        <v>1.044024770351656</v>
+        <v>1.054998213946794</v>
       </c>
       <c r="L7">
-        <v>1.042851985547314</v>
+        <v>1.064147552426453</v>
       </c>
       <c r="M7">
-        <v>1.050662350594397</v>
+        <v>1.073266373793515</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011959851717382</v>
+        <v>1.054102918616167</v>
       </c>
       <c r="D8">
-        <v>1.026840435198998</v>
+        <v>1.051068100083999</v>
       </c>
       <c r="E8">
-        <v>1.024408269897952</v>
+        <v>1.059925257663561</v>
       </c>
       <c r="F8">
-        <v>1.031777011443544</v>
+        <v>1.068945435614732</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05118954810443</v>
+        <v>1.042777354787207</v>
       </c>
       <c r="J8">
-        <v>1.033226722257245</v>
+        <v>1.059000651390739</v>
       </c>
       <c r="K8">
-        <v>1.037668706790154</v>
+        <v>1.053758164991217</v>
       </c>
       <c r="L8">
-        <v>1.035267462157064</v>
+        <v>1.062591551214005</v>
       </c>
       <c r="M8">
-        <v>1.042543082107786</v>
+        <v>1.071587957646325</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.992874070102458</v>
+        <v>1.05053548453456</v>
       </c>
       <c r="D9">
-        <v>1.012696129428731</v>
+        <v>1.048433437740555</v>
       </c>
       <c r="E9">
-        <v>1.007940633778943</v>
+        <v>1.056739331444528</v>
       </c>
       <c r="F9">
-        <v>1.01432023142778</v>
+        <v>1.065548043957479</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044629498459215</v>
+        <v>1.041829150364531</v>
       </c>
       <c r="J9">
-        <v>1.018680997363382</v>
+        <v>1.056245222191751</v>
       </c>
       <c r="K9">
-        <v>1.025586525235754</v>
+        <v>1.051555982452781</v>
       </c>
       <c r="L9">
-        <v>1.020906180185065</v>
+        <v>1.059835706675255</v>
       </c>
       <c r="M9">
-        <v>1.027185168164618</v>
+        <v>1.068617152131454</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9790976310777005</v>
+        <v>1.048148273618456</v>
       </c>
       <c r="D10">
-        <v>1.002508815888858</v>
+        <v>1.046668177511425</v>
       </c>
       <c r="E10">
-        <v>0.9960975735966802</v>
+        <v>1.054608300565137</v>
       </c>
       <c r="F10">
-        <v>1.001770802656437</v>
+        <v>1.063276435282976</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039817072544502</v>
+        <v>1.041184679795718</v>
       </c>
       <c r="J10">
-        <v>1.008165827520057</v>
+        <v>1.054397539773978</v>
       </c>
       <c r="K10">
-        <v>1.01683292015435</v>
+        <v>1.05007608801135</v>
       </c>
       <c r="L10">
-        <v>1.010537646851806</v>
+        <v>1.057988705279499</v>
       </c>
       <c r="M10">
-        <v>1.016108158151541</v>
+        <v>1.066627327788519</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9728364850466678</v>
+        <v>1.047112353230526</v>
       </c>
       <c r="D11">
-        <v>0.9978868250910291</v>
+        <v>1.045901636116946</v>
       </c>
       <c r="E11">
-        <v>0.9907276222815029</v>
+        <v>1.053683769300382</v>
       </c>
       <c r="F11">
-        <v>0.9960816510506687</v>
+        <v>1.06229112149549</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037612975262876</v>
+        <v>1.040902656842014</v>
       </c>
       <c r="J11">
-        <v>1.003384647460292</v>
+        <v>1.053594841521509</v>
       </c>
       <c r="K11">
-        <v>1.012848703129635</v>
+        <v>1.049432416654925</v>
       </c>
       <c r="L11">
-        <v>1.00582654646588</v>
+        <v>1.057186530798219</v>
       </c>
       <c r="M11">
-        <v>1.011077841945897</v>
+        <v>1.06576341983123</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9704617496285358</v>
+        <v>1.046727219348552</v>
       </c>
       <c r="D12">
-        <v>0.9961352460397138</v>
+        <v>1.045616575834351</v>
       </c>
       <c r="E12">
-        <v>0.9886929911230536</v>
+        <v>1.053340081657254</v>
       </c>
       <c r="F12">
-        <v>0.9939262308667013</v>
+        <v>1.061924869353789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036774596257042</v>
+        <v>1.040797452756536</v>
       </c>
       <c r="J12">
-        <v>1.001571051934115</v>
+        <v>1.053296279545141</v>
       </c>
       <c r="K12">
-        <v>1.011336865094106</v>
+        <v>1.049192891687034</v>
       </c>
       <c r="L12">
-        <v>1.004040069672799</v>
+        <v>1.056888197910705</v>
       </c>
       <c r="M12">
-        <v>1.009170727211024</v>
+        <v>1.065442172491163</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9709734403377476</v>
+        <v>1.046809847734833</v>
       </c>
       <c r="D13">
-        <v>0.9965125933885173</v>
+        <v>1.045677737389596</v>
       </c>
       <c r="E13">
-        <v>0.9891313006311097</v>
+        <v>1.053413816422765</v>
       </c>
       <c r="F13">
-        <v>0.9943905545420068</v>
+        <v>1.062003443707593</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036955350235096</v>
+        <v>1.040820039721496</v>
       </c>
       <c r="J13">
-        <v>1.001961837963904</v>
+        <v>1.053360340510899</v>
       </c>
       <c r="K13">
-        <v>1.011662653354025</v>
+        <v>1.049244290467045</v>
       </c>
       <c r="L13">
-        <v>1.004424987649412</v>
+        <v>1.056952208170826</v>
       </c>
       <c r="M13">
-        <v>1.00958161945321</v>
+        <v>1.065511097256436</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9726412187291469</v>
+        <v>1.047080525079264</v>
       </c>
       <c r="D14">
-        <v>0.9977427676819247</v>
+        <v>1.045878079768541</v>
       </c>
       <c r="E14">
-        <v>0.9905602778887236</v>
+        <v>1.053655365640672</v>
       </c>
       <c r="F14">
-        <v>0.995904368949445</v>
+        <v>1.062260852388176</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03754408615063</v>
+        <v>1.040893969800478</v>
       </c>
       <c r="J14">
-        <v>1.003235524530434</v>
+        <v>1.05357017058287</v>
       </c>
       <c r="K14">
-        <v>1.012724402940864</v>
+        <v>1.049412626391095</v>
       </c>
       <c r="L14">
-        <v>1.005679642356616</v>
+        <v>1.057161878090717</v>
       </c>
       <c r="M14">
-        <v>1.010921009275956</v>
+        <v>1.065736872681567</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9736621406612616</v>
+        <v>1.047247252051795</v>
       </c>
       <c r="D15">
-        <v>0.9984960119026043</v>
+        <v>1.046001473046264</v>
       </c>
       <c r="E15">
-        <v>0.991435300265446</v>
+        <v>1.053804155329749</v>
       </c>
       <c r="F15">
-        <v>0.9968313605002895</v>
+        <v>1.062419415302401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03790416614913</v>
+        <v>1.040939461078956</v>
       </c>
       <c r="J15">
-        <v>1.004015185870507</v>
+        <v>1.053699400040979</v>
       </c>
       <c r="K15">
-        <v>1.013374261391316</v>
+        <v>1.049516285653827</v>
       </c>
       <c r="L15">
-        <v>1.006447724933099</v>
+        <v>1.057291013454848</v>
       </c>
       <c r="M15">
-        <v>1.011741019668485</v>
+        <v>1.065875933301976</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9795065500628541</v>
+        <v>1.048216976144539</v>
       </c>
       <c r="D16">
-        <v>1.002810866218076</v>
+        <v>1.046719004035606</v>
       </c>
       <c r="E16">
-        <v>0.9964485636642557</v>
+        <v>1.054669620457451</v>
       </c>
       <c r="F16">
-        <v>1.002142677906706</v>
+        <v>1.063341790937364</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039960684776467</v>
+        <v>1.041203334044456</v>
       </c>
       <c r="J16">
-        <v>1.008478055365448</v>
+        <v>1.054450755958533</v>
       </c>
       <c r="K16">
-        <v>1.017093025275295</v>
+        <v>1.050118745438877</v>
       </c>
       <c r="L16">
-        <v>1.010845370555101</v>
+        <v>1.058041891538121</v>
       </c>
       <c r="M16">
-        <v>1.016436788770301</v>
+        <v>1.066684613375065</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9830903254668835</v>
+        <v>1.048824651052474</v>
       </c>
       <c r="D17">
-        <v>1.005458966356714</v>
+        <v>1.047168506279302</v>
       </c>
       <c r="E17">
-        <v>0.9995260793265363</v>
+        <v>1.055212021448084</v>
       </c>
       <c r="F17">
-        <v>1.005403438214553</v>
+        <v>1.063919913771201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041217414184928</v>
+        <v>1.0413680591726</v>
       </c>
       <c r="J17">
-        <v>1.011214193243903</v>
+        <v>1.054921349683438</v>
       </c>
       <c r="K17">
-        <v>1.019371952379779</v>
+        <v>1.050495880677664</v>
       </c>
       <c r="L17">
-        <v>1.013542423194545</v>
+        <v>1.058512246913748</v>
       </c>
       <c r="M17">
-        <v>1.019317384287386</v>
+        <v>1.067191255536798</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9851524797411192</v>
+        <v>1.049178881878059</v>
       </c>
       <c r="D18">
-        <v>1.006983447887804</v>
+        <v>1.04743048419277</v>
       </c>
       <c r="E18">
-        <v>1.001298081893704</v>
+        <v>1.055528223490305</v>
       </c>
       <c r="F18">
-        <v>1.007281053754914</v>
+        <v>1.06425696034007</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041938957133404</v>
+        <v>1.041463854879972</v>
       </c>
       <c r="J18">
-        <v>1.012788386181495</v>
+        <v>1.055195584873937</v>
       </c>
       <c r="K18">
-        <v>1.02068271694983</v>
+        <v>1.050715581036974</v>
       </c>
       <c r="L18">
-        <v>1.015094446309222</v>
+        <v>1.058786365152879</v>
       </c>
       <c r="M18">
-        <v>1.020975279231004</v>
+        <v>1.067486549865138</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9858509673475025</v>
+        <v>1.049299629156963</v>
       </c>
       <c r="D19">
-        <v>1.007499932674467</v>
+        <v>1.047519776608267</v>
       </c>
       <c r="E19">
-        <v>1.001898480543046</v>
+        <v>1.055636011404709</v>
       </c>
       <c r="F19">
-        <v>1.007917254378672</v>
+        <v>1.064371857168916</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042183081648698</v>
+        <v>1.041496470377314</v>
       </c>
       <c r="J19">
-        <v>1.013321551506298</v>
+        <v>1.055289049102701</v>
       </c>
       <c r="K19">
-        <v>1.021126595467718</v>
+        <v>1.050790446506103</v>
       </c>
       <c r="L19">
-        <v>1.015620156055616</v>
+        <v>1.058879793243856</v>
       </c>
       <c r="M19">
-        <v>1.021536893005822</v>
+        <v>1.067587200268408</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9827087685487764</v>
+        <v>1.048759475666045</v>
       </c>
       <c r="D20">
-        <v>1.00517695137933</v>
+        <v>1.04712030062099</v>
       </c>
       <c r="E20">
-        <v>0.9991983010747401</v>
+        <v>1.0551538447293</v>
       </c>
       <c r="F20">
-        <v>1.005056132453827</v>
+        <v>1.063857903552678</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041083777976079</v>
+        <v>1.041350415295923</v>
       </c>
       <c r="J20">
-        <v>1.010922904242484</v>
+        <v>1.054870885774762</v>
       </c>
       <c r="K20">
-        <v>1.019129377082225</v>
+        <v>1.050455446252404</v>
       </c>
       <c r="L20">
-        <v>1.013255262055039</v>
+        <v>1.058461806293427</v>
       </c>
       <c r="M20">
-        <v>1.019010654712246</v>
+        <v>1.067136920591992</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9721514945110343</v>
+        <v>1.047000827005693</v>
       </c>
       <c r="D21">
-        <v>0.9973814987620951</v>
+        <v>1.045819093166183</v>
       </c>
       <c r="E21">
-        <v>0.9901406156955157</v>
+        <v>1.053584243088154</v>
       </c>
       <c r="F21">
-        <v>0.9954597876438273</v>
+        <v>1.062185059268651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037371275393582</v>
+        <v>1.040872211632162</v>
       </c>
       <c r="J21">
-        <v>1.002861524649268</v>
+        <v>1.053508392072699</v>
       </c>
       <c r="K21">
-        <v>1.01241264984607</v>
+        <v>1.049363067762376</v>
       </c>
       <c r="L21">
-        <v>1.00531121597714</v>
+        <v>1.057100145786739</v>
       </c>
       <c r="M21">
-        <v>1.010527689304525</v>
+        <v>1.065670397266157</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9652270246389344</v>
+        <v>1.045893082554854</v>
       </c>
       <c r="D22">
-        <v>0.9922771738578895</v>
+        <v>1.044999044432367</v>
       </c>
       <c r="E22">
-        <v>0.9842120919908235</v>
+        <v>1.052595773876912</v>
       </c>
       <c r="F22">
-        <v>0.9891795876527313</v>
+        <v>1.061131751341957</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034922248231772</v>
+        <v>1.040568951307832</v>
       </c>
       <c r="J22">
-        <v>0.9975731157199266</v>
+        <v>1.052649396396172</v>
       </c>
       <c r="K22">
-        <v>1.008003189745863</v>
+        <v>1.048673716047515</v>
       </c>
       <c r="L22">
-        <v>1.000102935353133</v>
+        <v>1.056241873869332</v>
       </c>
       <c r="M22">
-        <v>1.004968490368549</v>
+        <v>1.064746286939808</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9689267177857486</v>
+        <v>1.046480512957784</v>
       </c>
       <c r="D23">
-        <v>0.9950034688376101</v>
+        <v>1.045433952664996</v>
       </c>
       <c r="E23">
-        <v>0.9873784214471503</v>
+        <v>1.05311993430737</v>
       </c>
       <c r="F23">
-        <v>0.9925336616659556</v>
+        <v>1.061690277143904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03623200738052</v>
+        <v>1.040729962318451</v>
       </c>
       <c r="J23">
-        <v>1.000398710392286</v>
+        <v>1.053104990766366</v>
       </c>
       <c r="K23">
-        <v>1.010359438694632</v>
+        <v>1.049039396261853</v>
       </c>
       <c r="L23">
-        <v>1.002885412739362</v>
+        <v>1.05669706556258</v>
       </c>
       <c r="M23">
-        <v>1.007938214749821</v>
+        <v>1.065236372133716</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9828812645050288</v>
+        <v>1.048788926284317</v>
       </c>
       <c r="D24">
-        <v>1.005304443727114</v>
+        <v>1.047142083329463</v>
       </c>
       <c r="E24">
-        <v>0.9993464809501236</v>
+        <v>1.055180132813806</v>
       </c>
       <c r="F24">
-        <v>1.005213139880003</v>
+        <v>1.063885923804207</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041144197802835</v>
+        <v>1.041358388687136</v>
       </c>
       <c r="J24">
-        <v>1.011054592166946</v>
+        <v>1.054893689028454</v>
       </c>
       <c r="K24">
-        <v>1.019239043365832</v>
+        <v>1.050473717682463</v>
       </c>
       <c r="L24">
-        <v>1.013385082843192</v>
+        <v>1.058484598955912</v>
       </c>
       <c r="M24">
-        <v>1.019149321283475</v>
+        <v>1.067161472899284</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9979797234509626</v>
+        <v>1.05145928611272</v>
       </c>
       <c r="D25">
-        <v>1.016476888605244</v>
+        <v>1.049116091652548</v>
       </c>
       <c r="E25">
-        <v>1.0123391483355</v>
+        <v>1.057564187351185</v>
       </c>
       <c r="F25">
-        <v>1.018982067782992</v>
+        <v>1.066427496593094</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046397909951887</v>
+        <v>1.04207644663955</v>
       </c>
       <c r="J25">
-        <v>1.022575269771576</v>
+        <v>1.056959429419698</v>
       </c>
       <c r="K25">
-        <v>1.028824695497369</v>
+        <v>1.052127352002484</v>
       </c>
       <c r="L25">
-        <v>1.02474888778346</v>
+        <v>1.060549852986282</v>
       </c>
       <c r="M25">
-        <v>1.031292688482462</v>
+        <v>1.069386784174055</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_170/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053582725339495</v>
+        <v>1.009279459971596</v>
       </c>
       <c r="D2">
-        <v>1.050684185109143</v>
+        <v>1.024852380208567</v>
       </c>
       <c r="E2">
-        <v>1.059460595610241</v>
+        <v>1.022091442394529</v>
       </c>
       <c r="F2">
-        <v>1.068449830793771</v>
+        <v>1.029320442167392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04264024812578</v>
+        <v>1.050277149299053</v>
       </c>
       <c r="J2">
-        <v>1.058599310103698</v>
+        <v>1.031186122600318</v>
       </c>
       <c r="K2">
-        <v>1.053437778997843</v>
+        <v>1.035976008045173</v>
       </c>
       <c r="L2">
-        <v>1.062190038389461</v>
+        <v>1.033251354021418</v>
       </c>
       <c r="M2">
-        <v>1.071154981823423</v>
+        <v>1.040385867644317</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055120979901498</v>
+        <v>1.017110722540172</v>
       </c>
       <c r="D3">
-        <v>1.051819178856494</v>
+        <v>1.030661929967254</v>
       </c>
       <c r="E3">
-        <v>1.060834737988352</v>
+        <v>1.028864203801684</v>
       </c>
       <c r="F3">
-        <v>1.069915583190493</v>
+        <v>1.036502320525468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043044498534006</v>
+        <v>1.052933553888624</v>
       </c>
       <c r="J3">
-        <v>1.059785649844038</v>
+        <v>1.037145556724033</v>
       </c>
       <c r="K3">
-        <v>1.054384437793381</v>
+        <v>1.040916959638962</v>
       </c>
       <c r="L3">
-        <v>1.063376998598946</v>
+        <v>1.039140616310998</v>
       </c>
       <c r="M3">
-        <v>1.072435100852805</v>
+        <v>1.046688515832352</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056114749340794</v>
+        <v>1.022021550327458</v>
       </c>
       <c r="D4">
-        <v>1.052551975567683</v>
+        <v>1.034306353644622</v>
       </c>
       <c r="E4">
-        <v>1.061722642927602</v>
+        <v>1.033117000484809</v>
       </c>
       <c r="F4">
-        <v>1.070862850454585</v>
+        <v>1.041013018629164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043303724065597</v>
+        <v>1.054583983730987</v>
       </c>
       <c r="J4">
-        <v>1.060551317887195</v>
+        <v>1.040878238184765</v>
       </c>
       <c r="K4">
-        <v>1.05499479027616</v>
+        <v>1.044007638239916</v>
       </c>
       <c r="L4">
-        <v>1.064143252061468</v>
+        <v>1.042831510139063</v>
       </c>
       <c r="M4">
-        <v>1.0732617340235</v>
+        <v>1.050640422814378</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056532158959304</v>
+        <v>1.024050763688675</v>
       </c>
       <c r="D5">
-        <v>1.052859660512452</v>
+        <v>1.035812478827046</v>
       </c>
       <c r="E5">
-        <v>1.062095623712309</v>
+        <v>1.034875586982569</v>
       </c>
       <c r="F5">
-        <v>1.071260807779602</v>
+        <v>1.042878497277984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04341214191551</v>
+        <v>1.055262205893226</v>
       </c>
       <c r="J5">
-        <v>1.060872738455015</v>
+        <v>1.042419509226798</v>
       </c>
       <c r="K5">
-        <v>1.05525086078771</v>
+        <v>1.045282809092165</v>
       </c>
       <c r="L5">
-        <v>1.06446496266182</v>
+        <v>1.044356036635569</v>
       </c>
       <c r="M5">
-        <v>1.073608852436558</v>
+        <v>1.052273224187759</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056602222349225</v>
+        <v>1.024389467278996</v>
       </c>
       <c r="D6">
-        <v>1.052911299868099</v>
+        <v>1.036063880447582</v>
       </c>
       <c r="E6">
-        <v>1.062158231748393</v>
+        <v>1.035169191830841</v>
       </c>
       <c r="F6">
-        <v>1.071327610706961</v>
+        <v>1.043189962955176</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043430312947022</v>
+        <v>1.055375187561642</v>
       </c>
       <c r="J6">
-        <v>1.060926679216041</v>
+        <v>1.042676700781323</v>
       </c>
       <c r="K6">
-        <v>1.055293825700705</v>
+        <v>1.045495536338279</v>
       </c>
       <c r="L6">
-        <v>1.064518954692998</v>
+        <v>1.044610463789187</v>
       </c>
       <c r="M6">
-        <v>1.073667111978364</v>
+        <v>1.052545748461233</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056120328236416</v>
+        <v>1.022048800742838</v>
       </c>
       <c r="D7">
-        <v>1.05255608836684</v>
+        <v>1.034326578825315</v>
       </c>
       <c r="E7">
-        <v>1.061727627864074</v>
+        <v>1.033140611693526</v>
       </c>
       <c r="F7">
-        <v>1.070868169047317</v>
+        <v>1.041038064015254</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043305174949912</v>
+        <v>1.054593106573929</v>
       </c>
       <c r="J7">
-        <v>1.060555614549202</v>
+        <v>1.040898940514193</v>
       </c>
       <c r="K7">
-        <v>1.054998213946794</v>
+        <v>1.044024770351655</v>
       </c>
       <c r="L7">
-        <v>1.064147552426453</v>
+        <v>1.042851985547312</v>
       </c>
       <c r="M7">
-        <v>1.073266373793515</v>
+        <v>1.050662350594396</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054102918616167</v>
+        <v>1.011959851717382</v>
       </c>
       <c r="D8">
-        <v>1.051068100083999</v>
+        <v>1.026840435198997</v>
       </c>
       <c r="E8">
-        <v>1.059925257663561</v>
+        <v>1.024408269897952</v>
       </c>
       <c r="F8">
-        <v>1.068945435614732</v>
+        <v>1.031777011443544</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042777354787207</v>
+        <v>1.05118954810443</v>
       </c>
       <c r="J8">
-        <v>1.059000651390739</v>
+        <v>1.033226722257244</v>
       </c>
       <c r="K8">
-        <v>1.053758164991217</v>
+        <v>1.037668706790153</v>
       </c>
       <c r="L8">
-        <v>1.062591551214005</v>
+        <v>1.035267462157063</v>
       </c>
       <c r="M8">
-        <v>1.071587957646325</v>
+        <v>1.042543082107786</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05053548453456</v>
+        <v>0.9928740701024577</v>
       </c>
       <c r="D9">
-        <v>1.048433437740555</v>
+        <v>1.01269612942873</v>
       </c>
       <c r="E9">
-        <v>1.056739331444528</v>
+        <v>1.007940633778942</v>
       </c>
       <c r="F9">
-        <v>1.065548043957479</v>
+        <v>1.014320231427779</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041829150364531</v>
+        <v>1.044629498459215</v>
       </c>
       <c r="J9">
-        <v>1.056245222191751</v>
+        <v>1.018680997363382</v>
       </c>
       <c r="K9">
-        <v>1.051555982452781</v>
+        <v>1.025586525235753</v>
       </c>
       <c r="L9">
-        <v>1.059835706675255</v>
+        <v>1.020906180185065</v>
       </c>
       <c r="M9">
-        <v>1.068617152131454</v>
+        <v>1.027185168164618</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048148273618456</v>
+        <v>0.9790976310776999</v>
       </c>
       <c r="D10">
-        <v>1.046668177511425</v>
+        <v>1.002508815888857</v>
       </c>
       <c r="E10">
-        <v>1.054608300565137</v>
+        <v>0.9960975735966795</v>
       </c>
       <c r="F10">
-        <v>1.063276435282976</v>
+        <v>1.001770802656437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041184679795718</v>
+        <v>1.039817072544501</v>
       </c>
       <c r="J10">
-        <v>1.054397539773978</v>
+        <v>1.008165827520057</v>
       </c>
       <c r="K10">
-        <v>1.05007608801135</v>
+        <v>1.01683292015435</v>
       </c>
       <c r="L10">
-        <v>1.057988705279499</v>
+        <v>1.010537646851805</v>
       </c>
       <c r="M10">
-        <v>1.066627327788519</v>
+        <v>1.016108158151541</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047112353230526</v>
+        <v>0.9728364850466694</v>
       </c>
       <c r="D11">
-        <v>1.045901636116946</v>
+        <v>0.9978868250910308</v>
       </c>
       <c r="E11">
-        <v>1.053683769300382</v>
+        <v>0.9907276222815047</v>
       </c>
       <c r="F11">
-        <v>1.06229112149549</v>
+        <v>0.996081651050671</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040902656842014</v>
+        <v>1.037612975262877</v>
       </c>
       <c r="J11">
-        <v>1.053594841521509</v>
+        <v>1.003384647460294</v>
       </c>
       <c r="K11">
-        <v>1.049432416654925</v>
+        <v>1.012848703129636</v>
       </c>
       <c r="L11">
-        <v>1.057186530798219</v>
+        <v>1.005826546465882</v>
       </c>
       <c r="M11">
-        <v>1.06576341983123</v>
+        <v>1.011077841945899</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046727219348552</v>
+        <v>0.970461749628537</v>
       </c>
       <c r="D12">
-        <v>1.045616575834351</v>
+        <v>0.9961352460397149</v>
       </c>
       <c r="E12">
-        <v>1.053340081657254</v>
+        <v>0.9886929911230544</v>
       </c>
       <c r="F12">
-        <v>1.061924869353789</v>
+        <v>0.9939262308667024</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040797452756536</v>
+        <v>1.036774596257043</v>
       </c>
       <c r="J12">
-        <v>1.053296279545141</v>
+        <v>1.001571051934117</v>
       </c>
       <c r="K12">
-        <v>1.049192891687034</v>
+        <v>1.011336865094107</v>
       </c>
       <c r="L12">
-        <v>1.056888197910705</v>
+        <v>1.0040400696728</v>
       </c>
       <c r="M12">
-        <v>1.065442172491163</v>
+        <v>1.009170727211025</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046809847734833</v>
+        <v>0.9709734403377491</v>
       </c>
       <c r="D13">
-        <v>1.045677737389596</v>
+        <v>0.9965125933885185</v>
       </c>
       <c r="E13">
-        <v>1.053413816422765</v>
+        <v>0.9891313006311107</v>
       </c>
       <c r="F13">
-        <v>1.062003443707593</v>
+        <v>0.9943905545420082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040820039721496</v>
+        <v>1.036955350235097</v>
       </c>
       <c r="J13">
-        <v>1.053360340510899</v>
+        <v>1.001961837963906</v>
       </c>
       <c r="K13">
-        <v>1.049244290467045</v>
+        <v>1.011662653354026</v>
       </c>
       <c r="L13">
-        <v>1.056952208170826</v>
+        <v>1.004424987649413</v>
       </c>
       <c r="M13">
-        <v>1.065511097256436</v>
+        <v>1.009581619453211</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047080525079264</v>
+        <v>0.972641218729147</v>
       </c>
       <c r="D14">
-        <v>1.045878079768541</v>
+        <v>0.9977427676819246</v>
       </c>
       <c r="E14">
-        <v>1.053655365640672</v>
+        <v>0.9905602778887238</v>
       </c>
       <c r="F14">
-        <v>1.062260852388176</v>
+        <v>0.995904368949445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040893969800478</v>
+        <v>1.03754408615063</v>
       </c>
       <c r="J14">
-        <v>1.05357017058287</v>
+        <v>1.003235524530435</v>
       </c>
       <c r="K14">
-        <v>1.049412626391095</v>
+        <v>1.012724402940864</v>
       </c>
       <c r="L14">
-        <v>1.057161878090717</v>
+        <v>1.005679642356616</v>
       </c>
       <c r="M14">
-        <v>1.065736872681567</v>
+        <v>1.010921009275956</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047247252051795</v>
+        <v>0.9736621406612594</v>
       </c>
       <c r="D15">
-        <v>1.046001473046264</v>
+        <v>0.9984960119026025</v>
       </c>
       <c r="E15">
-        <v>1.053804155329749</v>
+        <v>0.9914353002654444</v>
       </c>
       <c r="F15">
-        <v>1.062419415302401</v>
+        <v>0.9968313605002878</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040939461078956</v>
+        <v>1.037904166149129</v>
       </c>
       <c r="J15">
-        <v>1.053699400040979</v>
+        <v>1.004015185870505</v>
       </c>
       <c r="K15">
-        <v>1.049516285653827</v>
+        <v>1.013374261391314</v>
       </c>
       <c r="L15">
-        <v>1.057291013454848</v>
+        <v>1.006447724933097</v>
       </c>
       <c r="M15">
-        <v>1.065875933301976</v>
+        <v>1.011741019668483</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048216976144539</v>
+        <v>0.9795065500628543</v>
       </c>
       <c r="D16">
-        <v>1.046719004035606</v>
+        <v>1.002810866218077</v>
       </c>
       <c r="E16">
-        <v>1.054669620457451</v>
+        <v>0.9964485636642556</v>
       </c>
       <c r="F16">
-        <v>1.063341790937364</v>
+        <v>1.002142677906706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041203334044456</v>
+        <v>1.039960684776467</v>
       </c>
       <c r="J16">
-        <v>1.054450755958533</v>
+        <v>1.008478055365449</v>
       </c>
       <c r="K16">
-        <v>1.050118745438877</v>
+        <v>1.017093025275296</v>
       </c>
       <c r="L16">
-        <v>1.058041891538121</v>
+        <v>1.010845370555101</v>
       </c>
       <c r="M16">
-        <v>1.066684613375065</v>
+        <v>1.016436788770301</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048824651052474</v>
+        <v>0.983090325466883</v>
       </c>
       <c r="D17">
-        <v>1.047168506279302</v>
+        <v>1.005458966356714</v>
       </c>
       <c r="E17">
-        <v>1.055212021448084</v>
+        <v>0.9995260793265359</v>
       </c>
       <c r="F17">
-        <v>1.063919913771201</v>
+        <v>1.005403438214553</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0413680591726</v>
+        <v>1.041217414184928</v>
       </c>
       <c r="J17">
-        <v>1.054921349683438</v>
+        <v>1.011214193243903</v>
       </c>
       <c r="K17">
-        <v>1.050495880677664</v>
+        <v>1.019371952379779</v>
       </c>
       <c r="L17">
-        <v>1.058512246913748</v>
+        <v>1.013542423194545</v>
       </c>
       <c r="M17">
-        <v>1.067191255536798</v>
+        <v>1.019317384287385</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049178881878059</v>
+        <v>0.985152479741117</v>
       </c>
       <c r="D18">
-        <v>1.04743048419277</v>
+        <v>1.006983447887803</v>
       </c>
       <c r="E18">
-        <v>1.055528223490305</v>
+        <v>1.001298081893702</v>
       </c>
       <c r="F18">
-        <v>1.06425696034007</v>
+        <v>1.007281053754912</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041463854879972</v>
+        <v>1.041938957133403</v>
       </c>
       <c r="J18">
-        <v>1.055195584873937</v>
+        <v>1.012788386181493</v>
       </c>
       <c r="K18">
-        <v>1.050715581036974</v>
+        <v>1.020682716949828</v>
       </c>
       <c r="L18">
-        <v>1.058786365152879</v>
+        <v>1.01509444630922</v>
       </c>
       <c r="M18">
-        <v>1.067486549865138</v>
+        <v>1.020975279231002</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049299629156963</v>
+        <v>0.9858509673474989</v>
       </c>
       <c r="D19">
-        <v>1.047519776608267</v>
+        <v>1.007499932674464</v>
       </c>
       <c r="E19">
-        <v>1.055636011404709</v>
+        <v>1.001898480543043</v>
       </c>
       <c r="F19">
-        <v>1.064371857168916</v>
+        <v>1.007917254378669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041496470377314</v>
+        <v>1.042183081648696</v>
       </c>
       <c r="J19">
-        <v>1.055289049102701</v>
+        <v>1.013321551506295</v>
       </c>
       <c r="K19">
-        <v>1.050790446506103</v>
+        <v>1.021126595467714</v>
       </c>
       <c r="L19">
-        <v>1.058879793243856</v>
+        <v>1.015620156055613</v>
       </c>
       <c r="M19">
-        <v>1.067587200268408</v>
+        <v>1.021536893005818</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048759475666045</v>
+        <v>0.9827087685487748</v>
       </c>
       <c r="D20">
-        <v>1.04712030062099</v>
+        <v>1.005176951379328</v>
       </c>
       <c r="E20">
-        <v>1.0551538447293</v>
+        <v>0.9991983010747384</v>
       </c>
       <c r="F20">
-        <v>1.063857903552678</v>
+        <v>1.005056132453825</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041350415295923</v>
+        <v>1.041083777976078</v>
       </c>
       <c r="J20">
-        <v>1.054870885774762</v>
+        <v>1.010922904242482</v>
       </c>
       <c r="K20">
-        <v>1.050455446252404</v>
+        <v>1.019129377082224</v>
       </c>
       <c r="L20">
-        <v>1.058461806293427</v>
+        <v>1.013255262055037</v>
       </c>
       <c r="M20">
-        <v>1.067136920591992</v>
+        <v>1.019010654712244</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047000827005693</v>
+        <v>0.9721514945110314</v>
       </c>
       <c r="D21">
-        <v>1.045819093166183</v>
+        <v>0.9973814987620926</v>
       </c>
       <c r="E21">
-        <v>1.053584243088154</v>
+        <v>0.9901406156955128</v>
       </c>
       <c r="F21">
-        <v>1.062185059268651</v>
+        <v>0.9954597876438248</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040872211632162</v>
+        <v>1.037371275393581</v>
       </c>
       <c r="J21">
-        <v>1.053508392072699</v>
+        <v>1.002861524649266</v>
       </c>
       <c r="K21">
-        <v>1.049363067762376</v>
+        <v>1.012412649846067</v>
       </c>
       <c r="L21">
-        <v>1.057100145786739</v>
+        <v>1.005311215977137</v>
       </c>
       <c r="M21">
-        <v>1.065670397266157</v>
+        <v>1.010527689304522</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045893082554854</v>
+        <v>0.9652270246389346</v>
       </c>
       <c r="D22">
-        <v>1.044999044432367</v>
+        <v>0.9922771738578895</v>
       </c>
       <c r="E22">
-        <v>1.052595773876912</v>
+        <v>0.9842120919908234</v>
       </c>
       <c r="F22">
-        <v>1.061131751341957</v>
+        <v>0.9891795876527311</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040568951307832</v>
+        <v>1.034922248231772</v>
       </c>
       <c r="J22">
-        <v>1.052649396396172</v>
+        <v>0.9975731157199267</v>
       </c>
       <c r="K22">
-        <v>1.048673716047515</v>
+        <v>1.008003189745863</v>
       </c>
       <c r="L22">
-        <v>1.056241873869332</v>
+        <v>1.000102935353133</v>
       </c>
       <c r="M22">
-        <v>1.064746286939808</v>
+        <v>1.004968490368549</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046480512957784</v>
+        <v>0.9689267177857492</v>
       </c>
       <c r="D23">
-        <v>1.045433952664996</v>
+        <v>0.9950034688376106</v>
       </c>
       <c r="E23">
-        <v>1.05311993430737</v>
+        <v>0.9873784214471508</v>
       </c>
       <c r="F23">
-        <v>1.061690277143904</v>
+        <v>0.9925336616659565</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040729962318451</v>
+        <v>1.03623200738052</v>
       </c>
       <c r="J23">
-        <v>1.053104990766366</v>
+        <v>1.000398710392286</v>
       </c>
       <c r="K23">
-        <v>1.049039396261853</v>
+        <v>1.010359438694632</v>
       </c>
       <c r="L23">
-        <v>1.05669706556258</v>
+        <v>1.002885412739362</v>
       </c>
       <c r="M23">
-        <v>1.065236372133716</v>
+        <v>1.007938214749822</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048788926284317</v>
+        <v>0.9828812645050276</v>
       </c>
       <c r="D24">
-        <v>1.047142083329463</v>
+        <v>1.005304443727113</v>
       </c>
       <c r="E24">
-        <v>1.055180132813806</v>
+        <v>0.9993464809501226</v>
       </c>
       <c r="F24">
-        <v>1.063885923804207</v>
+        <v>1.005213139880002</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041358388687136</v>
+        <v>1.041144197802834</v>
       </c>
       <c r="J24">
-        <v>1.054893689028454</v>
+        <v>1.011054592166945</v>
       </c>
       <c r="K24">
-        <v>1.050473717682463</v>
+        <v>1.01923904336583</v>
       </c>
       <c r="L24">
-        <v>1.058484598955912</v>
+        <v>1.013385082843191</v>
       </c>
       <c r="M24">
-        <v>1.067161472899284</v>
+        <v>1.019149321283474</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.05145928611272</v>
+        <v>0.9979797234509638</v>
       </c>
       <c r="D25">
-        <v>1.049116091652548</v>
+        <v>1.016476888605245</v>
       </c>
       <c r="E25">
-        <v>1.057564187351185</v>
+        <v>1.0123391483355</v>
       </c>
       <c r="F25">
-        <v>1.066427496593094</v>
+        <v>1.018982067782993</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04207644663955</v>
+        <v>1.046397909951888</v>
       </c>
       <c r="J25">
-        <v>1.056959429419698</v>
+        <v>1.022575269771577</v>
       </c>
       <c r="K25">
-        <v>1.052127352002484</v>
+        <v>1.02882469549737</v>
       </c>
       <c r="L25">
-        <v>1.060549852986282</v>
+        <v>1.024748887783461</v>
       </c>
       <c r="M25">
-        <v>1.069386784174055</v>
+        <v>1.031292688482463</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
